--- a/Documentation/mydemoapp-qa.xlsx
+++ b/Documentation/mydemoapp-qa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rea\Develop\Manual-QA-MyDemoApp-by-Sauce-Labs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rea\Develop\Manual-QA-MyDemoApp-by-Sauce-Labs\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9526C8E-76F7-41C9-90DD-CB8A77425542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D366DF62-0529-4823-AC35-A967090A7F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="122">
   <si>
     <t>Test Cases</t>
   </si>
@@ -480,6 +480,9 @@
     <t>Verify if application runs on selected network connection:
 1. 5G
 2. Wi-Fi</t>
+  </si>
+  <si>
+    <t>Provided QR Code is not readable by the QR Code Scanner</t>
   </si>
 </sst>
 </file>
@@ -639,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -723,9 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1588,9 +1588,9 @@
   <dimension ref="A1:S659"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D42" sqref="D42"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,6 +1715,9 @@
       <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="I5" s="28" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -1737,6 +1740,9 @@
       <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="I6" s="28" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -1759,6 +1765,9 @@
       <c r="G7" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="I7" s="28" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1781,6 +1790,9 @@
       <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="I8" s="28" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
@@ -1803,6 +1815,9 @@
       <c r="G9" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="I9" s="28" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -1825,6 +1840,9 @@
       <c r="G10" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="I10" s="28" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
@@ -1847,6 +1865,9 @@
       <c r="G11" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="I11" s="28" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -1856,7 +1877,7 @@
       <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="3" t="s">
         <v>106</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -1869,6 +1890,9 @@
       <c r="G12" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="I12" s="28" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
@@ -1891,6 +1915,9 @@
       <c r="G13" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="I13" s="28" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -1913,6 +1940,9 @@
       <c r="G14" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="I14" s="28" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -1935,6 +1965,9 @@
       <c r="G15" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="I15" s="28" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -1957,11 +1990,14 @@
       <c r="G16" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="H16" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="I16" s="29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1982,8 +2018,11 @@
       <c r="G17" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="I17" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2004,8 +2043,11 @@
       <c r="G18" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="I18" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2026,8 +2068,11 @@
       <c r="G19" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="I19" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2046,8 +2091,11 @@
       <c r="G20" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="I20" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2066,8 +2114,11 @@
       <c r="G21" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="I21" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2086,8 +2137,11 @@
       <c r="G22" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="I22" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2108,8 +2162,11 @@
       <c r="G23" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="I23" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2130,8 +2187,11 @@
       <c r="G24" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="I24" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2152,8 +2212,11 @@
       <c r="G25" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="I25" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2174,8 +2237,11 @@
       <c r="G26" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2184,7 +2250,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2196,7 +2262,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2209,7 +2275,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2222,7 +2288,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2235,7 +2301,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4843,7 +4909,7 @@
       <c r="A659" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H1048576 L3">
+  <conditionalFormatting sqref="H2:H15 L3 H17:H1048576">
     <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
       <formula>"Incorrect"</formula>
     </cfRule>
@@ -4854,7 +4920,7 @@
       <formula>"Correct"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H1000">
+  <conditionalFormatting sqref="H3:H15 H17:H1000">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Can't Test">
       <formula>NOT(ISERROR(SEARCH("Can't Test",H3)))</formula>
     </cfRule>
@@ -4869,7 +4935,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Correct,Incorrect,Suggestion,Can't Test"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H15 H17:H1048576" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Correct,Incorrect,Suggestion,Can't Tested"</formula1>
     </dataValidation>
   </dataValidations>
